--- a/src/main/java/com/qa/testdata/APITestData.xlsx
+++ b/src/main/java/com/qa/testdata/APITestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/RestAPIRestAssuredFW/src/main/java/com/qa/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkarki10/Documents/my doc/Visualsoft/RestAssuredFramework/src/main/java/com/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3228208-7CDD-124A-B394-45BA29C5D44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1060" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="2540" yWindow="1060" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WeatherInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="CoronaCasesDaily" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,76 +28,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>humidity</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>weatherdescription</t>
-  </si>
-  <si>
-    <t>windspeed</t>
-  </si>
-  <si>
-    <t>winddirectiondegree</t>
-  </si>
-  <si>
-    <t>HTTPMethod</t>
-  </si>
-  <si>
-    <t>75 Percent</t>
-  </si>
-  <si>
-    <t>13.123 Degree celsius</t>
-  </si>
-  <si>
-    <t>clear sky</t>
-  </si>
-  <si>
-    <t>1.35 Km per hour</t>
-  </si>
-  <si>
-    <t>114.5 Degree</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>82 Percent</t>
-  </si>
-  <si>
-    <t>21.18 Degree celsius</t>
-  </si>
-  <si>
-    <t>few clouds</t>
-  </si>
-  <si>
-    <t>2.1 Km per hour</t>
-  </si>
-  <si>
-    <t>100 Degree</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>areaName</t>
+  </si>
+  <si>
+    <t>areaCode</t>
+  </si>
+  <si>
+    <t>confirmedRate</t>
+  </si>
+  <si>
+    <t>latestBy</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>deathNew</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>deathRate</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>K02000001</t>
+  </si>
+  <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +88,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,9 +123,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,6 +144,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -412,115 +414,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="2">
+        <v>33151.9</v>
+      </c>
+      <c r="E2" s="9">
+        <v>6338</v>
+      </c>
+      <c r="F2" s="2">
+        <v>22238713</v>
+      </c>
+      <c r="G2" s="2">
+        <v>87</v>
+      </c>
+      <c r="H2" s="2">
+        <v>177977</v>
+      </c>
+      <c r="I2" s="2">
+        <v>265.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>33142.5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>12208</v>
+      </c>
+      <c r="F3" s="2">
+        <v>22232377</v>
+      </c>
+      <c r="G3" s="2">
+        <v>169</v>
+      </c>
+      <c r="H3" s="2">
+        <v>177890</v>
+      </c>
+      <c r="I3" s="2">
+        <v>265.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/java/com/qa/testdata/APITestData.xlsx
+++ b/src/main/java/com/qa/testdata/APITestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkarki10/Documents/my doc/Visualsoft/RestAssuredFramework/src/main/java/com/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3228208-7CDD-124A-B394-45BA29C5D44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EF66D6-FD01-AE47-8ACA-B679ACF2AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1060" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>2022-05-19</t>
+  </si>
+  <si>
+    <t>2021-04-18</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,6 +525,35 @@
         <v>265.2</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>33142.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1882</v>
+      </c>
+      <c r="F4" s="2">
+        <v>22232377</v>
+      </c>
+      <c r="G4" s="2">
+        <v>169</v>
+      </c>
+      <c r="H4" s="2">
+        <v>177890</v>
+      </c>
+      <c r="I4" s="2">
+        <v>265.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
